--- a/status.xlsx
+++ b/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry.inman\coding\work_session_entry_sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AADE32A-FEF4-4997-8EE0-B44C60C30125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0D4EE-D95D-41D7-9EF0-F64975DACEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0B1E3BC7-28C8-428F-A72D-1E7B251ED6D0}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>Volunteer Canyon</t>
   </si>
   <si>
-    <t>mu33481</t>
-  </si>
-  <si>
     <t>https://www.calflora.org/entry/poe.html#vrid=mg155267</t>
   </si>
   <si>
@@ -1823,6 +1820,9 @@
   <si>
     <t xml:space="preserve">reference polygon
 </t>
+  </si>
+  <si>
+    <t>mg33481</t>
   </si>
 </sst>
 </file>
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2C3025-A4B0-4B52-A61C-85D535922789}">
   <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2313,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2339,13 +2339,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>593</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -2359,25 +2359,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>585</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
       </c>
       <c r="H5">
         <v>0.05</v>
@@ -2385,25 +2385,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>585</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -2411,25 +2411,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>585</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -2437,19 +2437,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
       </c>
       <c r="H8">
         <v>0.4</v>
@@ -2457,19 +2457,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
       </c>
       <c r="H9">
         <v>0.02</v>
@@ -2477,19 +2477,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
       <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
       </c>
       <c r="H10">
         <v>0.02</v>
@@ -2497,19 +2497,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
       </c>
       <c r="H11">
         <v>0.02</v>
@@ -2517,19 +2517,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
       <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
       </c>
       <c r="H12">
         <v>0.04</v>
@@ -2537,19 +2537,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2557,19 +2557,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
       <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
         <v>48</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -2577,19 +2577,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
       <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
         <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2597,19 +2597,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
       <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2617,25 +2617,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>584</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>585</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
       </c>
       <c r="H17">
         <v>69</v>
@@ -2643,25 +2643,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>585</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>62</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>64</v>
       </c>
       <c r="H18">
         <v>12</v>
@@ -2669,25 +2669,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>584</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>585</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>66</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>68</v>
       </c>
       <c r="H19">
         <v>35.25</v>
@@ -2695,25 +2695,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>584</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>585</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
       <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
         <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
       </c>
       <c r="H20">
         <v>19</v>
@@ -2721,25 +2721,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>585</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
       <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
         <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -2747,25 +2747,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>584</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>585</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
       <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
         <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>68</v>
       </c>
       <c r="H22">
         <v>55.38</v>
@@ -2773,25 +2773,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>584</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>585</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
       <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
         <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>68</v>
       </c>
       <c r="H23">
         <v>17</v>
@@ -2799,25 +2799,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>584</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>585</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
       <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
         <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>68</v>
       </c>
       <c r="H24">
         <v>5.15</v>
@@ -2825,25 +2825,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>584</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>585</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
       <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
         <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>68</v>
       </c>
       <c r="H25">
         <v>12.3</v>
@@ -2851,25 +2851,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>585</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>82</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>83</v>
-      </c>
-      <c r="G26" t="s">
-        <v>84</v>
       </c>
       <c r="H26">
         <v>98.75</v>
@@ -2877,25 +2877,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>584</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>585</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>86</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>87</v>
-      </c>
-      <c r="G27" t="s">
-        <v>88</v>
       </c>
       <c r="H27">
         <v>6</v>
@@ -2903,25 +2903,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>584</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>585</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>90</v>
       </c>
-      <c r="F28" t="s">
-        <v>91</v>
-      </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -2929,25 +2929,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>584</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
         <v>92</v>
       </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>585</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -2955,25 +2955,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>584</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
         <v>94</v>
       </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>585</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30">
         <v>8</v>
@@ -2981,25 +2981,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>584</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
         <v>96</v>
       </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>585</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>97</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>98</v>
-      </c>
-      <c r="G31" t="s">
-        <v>99</v>
       </c>
       <c r="H31">
         <v>7.5</v>
@@ -3007,25 +3007,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>584</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
         <v>100</v>
       </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>585</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>101</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>102</v>
-      </c>
-      <c r="G32" t="s">
-        <v>103</v>
       </c>
       <c r="H32">
         <v>15.5</v>
@@ -3033,25 +3033,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
         <v>105</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>106</v>
-      </c>
-      <c r="G33" t="s">
-        <v>107</v>
       </c>
       <c r="H33">
         <v>177.5</v>
@@ -3059,25 +3059,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" t="s">
         <v>109</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>110</v>
-      </c>
-      <c r="G34" t="s">
-        <v>111</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3085,25 +3085,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>584</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
         <v>112</v>
       </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>585</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>113</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>114</v>
-      </c>
-      <c r="G35" t="s">
-        <v>115</v>
       </c>
       <c r="H35">
         <v>9</v>
@@ -3111,25 +3111,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>584</v>
+      </c>
+      <c r="D36" t="s">
         <v>117</v>
       </c>
-      <c r="C36" t="s">
-        <v>585</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>118</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>119</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>120</v>
-      </c>
-      <c r="G36" t="s">
-        <v>121</v>
       </c>
       <c r="H36">
         <v>24.85</v>
@@ -3137,25 +3137,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>584</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
         <v>122</v>
       </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>585</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>123</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>124</v>
-      </c>
-      <c r="G37" t="s">
-        <v>125</v>
       </c>
       <c r="H37">
         <v>28</v>
@@ -3163,25 +3163,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>584</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
         <v>126</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>585</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>127</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>128</v>
-      </c>
-      <c r="G38" t="s">
-        <v>129</v>
       </c>
       <c r="H38">
         <v>0.5</v>
@@ -3189,25 +3189,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>584</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
         <v>130</v>
       </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>585</v>
-      </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>131</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>132</v>
-      </c>
-      <c r="G39" t="s">
-        <v>133</v>
       </c>
       <c r="H39">
         <v>42.5</v>
@@ -3215,25 +3215,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>584</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
         <v>134</v>
       </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>585</v>
-      </c>
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>135</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>136</v>
-      </c>
-      <c r="G40" t="s">
-        <v>137</v>
       </c>
       <c r="H40">
         <v>73</v>
@@ -3241,25 +3241,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>582</v>
+      </c>
+      <c r="D41" t="s">
         <v>138</v>
       </c>
-      <c r="B41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" t="s">
-        <v>583</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>139</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>140</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>141</v>
-      </c>
-      <c r="G41" t="s">
-        <v>142</v>
       </c>
       <c r="H41">
         <v>0.5</v>
@@ -3267,25 +3267,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" t="s">
         <v>144</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>145</v>
-      </c>
-      <c r="G42" t="s">
-        <v>146</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3293,25 +3293,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" t="s">
         <v>145</v>
-      </c>
-      <c r="G43" t="s">
-        <v>146</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -3319,25 +3319,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>582</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
         <v>149</v>
       </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>583</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>150</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>151</v>
-      </c>
-      <c r="G44" t="s">
-        <v>152</v>
       </c>
       <c r="H44">
         <v>0.5</v>
@@ -3345,25 +3345,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="s">
         <v>154</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>155</v>
-      </c>
-      <c r="G45" t="s">
-        <v>156</v>
       </c>
       <c r="H45">
         <v>3.7</v>
@@ -3371,25 +3371,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" t="s">
         <v>158</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>159</v>
-      </c>
-      <c r="G46" t="s">
-        <v>160</v>
       </c>
       <c r="H46">
         <v>0.5</v>
@@ -3397,25 +3397,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" t="s">
         <v>162</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>163</v>
-      </c>
-      <c r="G47" t="s">
-        <v>164</v>
       </c>
       <c r="H47">
         <v>5</v>
@@ -3423,25 +3423,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" t="s">
         <v>163</v>
-      </c>
-      <c r="G48" t="s">
-        <v>164</v>
       </c>
       <c r="H48">
         <v>3.13</v>
@@ -3449,25 +3449,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>584</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
         <v>167</v>
       </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>585</v>
-      </c>
-      <c r="D49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>168</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>169</v>
-      </c>
-      <c r="G49" t="s">
-        <v>170</v>
       </c>
       <c r="H49">
         <v>21.5</v>
@@ -3475,25 +3475,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>582</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
         <v>171</v>
       </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>583</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" t="s">
-        <v>172</v>
-      </c>
       <c r="F50" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" t="s">
         <v>169</v>
-      </c>
-      <c r="G50" t="s">
-        <v>170</v>
       </c>
       <c r="H50">
         <v>27.75</v>
@@ -3501,25 +3501,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>584</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
         <v>173</v>
       </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s">
-        <v>585</v>
-      </c>
-      <c r="D51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" t="s">
-        <v>174</v>
-      </c>
       <c r="F51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" t="s">
         <v>169</v>
-      </c>
-      <c r="G51" t="s">
-        <v>170</v>
       </c>
       <c r="H51">
         <v>9.1300000000000008</v>
@@ -3527,25 +3527,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
         <v>175</v>
       </c>
-      <c r="B52" t="s">
-        <v>176</v>
-      </c>
       <c r="C52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" t="s">
         <v>177</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>178</v>
-      </c>
-      <c r="G52" t="s">
-        <v>179</v>
       </c>
       <c r="H52">
         <v>0.35</v>
@@ -3553,25 +3553,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F53" t="s">
+        <v>177</v>
+      </c>
+      <c r="G53" t="s">
         <v>178</v>
-      </c>
-      <c r="G53" t="s">
-        <v>179</v>
       </c>
       <c r="H53">
         <v>0.75</v>
@@ -3579,25 +3579,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F54" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" t="s">
         <v>178</v>
-      </c>
-      <c r="G54" t="s">
-        <v>179</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -3605,25 +3605,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F55" t="s">
+        <v>177</v>
+      </c>
+      <c r="G55" t="s">
         <v>178</v>
-      </c>
-      <c r="G55" t="s">
-        <v>179</v>
       </c>
       <c r="H55">
         <v>0.06</v>
@@ -3631,25 +3631,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>584</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
         <v>186</v>
       </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>585</v>
-      </c>
-      <c r="D56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>187</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>188</v>
-      </c>
-      <c r="G56" t="s">
-        <v>189</v>
       </c>
       <c r="H56">
         <v>0.5</v>
@@ -3657,25 +3657,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>584</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
         <v>190</v>
       </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>585</v>
-      </c>
-      <c r="D57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" t="s">
-        <v>191</v>
-      </c>
       <c r="F57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57" t="s">
         <v>188</v>
-      </c>
-      <c r="G57" t="s">
-        <v>189</v>
       </c>
       <c r="H57">
         <v>66</v>
@@ -3683,25 +3683,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
       <c r="E58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" t="s">
         <v>193</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>194</v>
-      </c>
-      <c r="G58" t="s">
-        <v>195</v>
       </c>
       <c r="H58">
         <v>0.03</v>
@@ -3709,25 +3709,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
+        <v>196</v>
+      </c>
+      <c r="F59" t="s">
         <v>197</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>198</v>
-      </c>
-      <c r="G59" t="s">
-        <v>199</v>
       </c>
       <c r="H59">
         <v>13.03</v>
@@ -3735,25 +3735,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>582</v>
+      </c>
+      <c r="D60" t="s">
         <v>200</v>
       </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" t="s">
-        <v>583</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>201</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>202</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>203</v>
-      </c>
-      <c r="G60" t="s">
-        <v>204</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -3761,25 +3761,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" t="s">
         <v>206</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>207</v>
-      </c>
-      <c r="G61" t="s">
-        <v>208</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -3787,25 +3787,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" t="s">
         <v>210</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>211</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>212</v>
-      </c>
-      <c r="G62" t="s">
-        <v>213</v>
       </c>
       <c r="H62">
         <v>8.5</v>
@@ -3813,25 +3813,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" t="s">
         <v>215</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>216</v>
-      </c>
-      <c r="G63" t="s">
-        <v>217</v>
       </c>
       <c r="H63">
         <v>0.5</v>
@@ -3839,25 +3839,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>584</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
         <v>218</v>
       </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>585</v>
-      </c>
-      <c r="D64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>219</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>220</v>
-      </c>
-      <c r="G64" t="s">
-        <v>221</v>
       </c>
       <c r="H64">
         <v>9.3000000000000007</v>
@@ -3865,25 +3865,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" t="s">
+        <v>584</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
         <v>222</v>
       </c>
-      <c r="B65" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" t="s">
-        <v>585</v>
-      </c>
-      <c r="D65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>223</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>224</v>
-      </c>
-      <c r="G65" t="s">
-        <v>225</v>
       </c>
       <c r="H65">
         <v>60</v>
@@ -3891,25 +3891,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" t="s">
+        <v>584</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
         <v>226</v>
       </c>
-      <c r="B66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" t="s">
-        <v>585</v>
-      </c>
-      <c r="D66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>227</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>228</v>
-      </c>
-      <c r="G66" t="s">
-        <v>229</v>
       </c>
       <c r="H66">
         <v>172</v>
@@ -3917,19 +3917,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
         <v>230</v>
       </c>
-      <c r="B67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>231</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>232</v>
-      </c>
-      <c r="G67" t="s">
-        <v>233</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3937,19 +3937,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
         <v>234</v>
       </c>
-      <c r="B68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>235</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>236</v>
-      </c>
-      <c r="G68" t="s">
-        <v>237</v>
       </c>
       <c r="H68">
         <v>21.5</v>
@@ -3957,19 +3957,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
         <v>238</v>
       </c>
-      <c r="B69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" t="s">
-        <v>239</v>
-      </c>
       <c r="F69" t="s">
+        <v>235</v>
+      </c>
+      <c r="G69" t="s">
         <v>236</v>
-      </c>
-      <c r="G69" t="s">
-        <v>237</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3977,25 +3977,25 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>582</v>
+      </c>
+      <c r="D70" t="s">
         <v>240</v>
       </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>583</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>241</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>242</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>243</v>
-      </c>
-      <c r="G70" t="s">
-        <v>244</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -4003,19 +4003,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
         <v>245</v>
       </c>
-      <c r="B71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>246</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>247</v>
-      </c>
-      <c r="G71" t="s">
-        <v>248</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -4023,25 +4023,25 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>584</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
         <v>249</v>
       </c>
-      <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" t="s">
-        <v>585</v>
-      </c>
-      <c r="D72" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>250</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>251</v>
-      </c>
-      <c r="G72" t="s">
-        <v>252</v>
       </c>
       <c r="H72">
         <v>20.5</v>
@@ -4049,22 +4049,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>583</v>
+      </c>
+      <c r="E73" t="s">
         <v>253</v>
       </c>
-      <c r="B73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" t="s">
-        <v>584</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>254</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>255</v>
-      </c>
-      <c r="G73" t="s">
-        <v>256</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -4072,25 +4072,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D74" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" t="s">
         <v>258</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>259</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>260</v>
-      </c>
-      <c r="G74" t="s">
-        <v>261</v>
       </c>
       <c r="H74">
         <v>6</v>
@@ -4098,25 +4098,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E75" t="s">
+        <v>262</v>
+      </c>
+      <c r="F75" t="s">
         <v>263</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>264</v>
-      </c>
-      <c r="G75" t="s">
-        <v>265</v>
       </c>
       <c r="H75">
         <v>1.5</v>
@@ -4124,25 +4124,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F76" t="s">
+        <v>263</v>
+      </c>
+      <c r="G76" t="s">
         <v>264</v>
-      </c>
-      <c r="G76" t="s">
-        <v>265</v>
       </c>
       <c r="H76">
         <v>1.5</v>
@@ -4150,25 +4150,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
+        <v>268</v>
+      </c>
+      <c r="F77" t="s">
         <v>269</v>
       </c>
-      <c r="F77" t="s">
-        <v>270</v>
-      </c>
       <c r="G77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H77">
         <v>40</v>
@@ -4176,19 +4176,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
         <v>271</v>
       </c>
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>272</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>273</v>
-      </c>
-      <c r="G78" t="s">
-        <v>274</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -4196,22 +4196,22 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>582</v>
+      </c>
+      <c r="E79" t="s">
         <v>275</v>
       </c>
-      <c r="B79" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" t="s">
-        <v>583</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>276</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>277</v>
-      </c>
-      <c r="G79" t="s">
-        <v>278</v>
       </c>
       <c r="H79">
         <v>0.1</v>
@@ -4219,25 +4219,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D80" t="s">
+        <v>279</v>
+      </c>
+      <c r="E80" t="s">
         <v>280</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>281</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
-      </c>
-      <c r="G80" t="s">
-        <v>283</v>
       </c>
       <c r="H80">
         <v>0.1</v>
@@ -4245,25 +4245,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F81" t="s">
+        <v>281</v>
+      </c>
+      <c r="G81" t="s">
         <v>282</v>
-      </c>
-      <c r="G81" t="s">
-        <v>283</v>
       </c>
       <c r="H81">
         <v>0.5</v>
@@ -4271,25 +4271,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
       </c>
       <c r="E82" t="s">
+        <v>286</v>
+      </c>
+      <c r="F82" t="s">
+        <v>281</v>
+      </c>
+      <c r="G82" t="s">
         <v>287</v>
-      </c>
-      <c r="F82" t="s">
-        <v>282</v>
-      </c>
-      <c r="G82" t="s">
-        <v>288</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -4297,25 +4297,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D83" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F83" t="s">
+        <v>281</v>
+      </c>
+      <c r="G83" t="s">
         <v>282</v>
-      </c>
-      <c r="G83" t="s">
-        <v>283</v>
       </c>
       <c r="H83">
         <v>0.75</v>
@@ -4323,25 +4323,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>582</v>
+      </c>
+      <c r="D84" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" t="s">
         <v>291</v>
       </c>
-      <c r="B84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" t="s">
-        <v>583</v>
-      </c>
-      <c r="D84" t="s">
-        <v>280</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>292</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>293</v>
-      </c>
-      <c r="G84" t="s">
-        <v>294</v>
       </c>
       <c r="H84">
         <v>7.0000000000000007E-2</v>
@@ -4349,19 +4349,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
         <v>295</v>
       </c>
-      <c r="B85" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>296</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>297</v>
-      </c>
-      <c r="G85" t="s">
-        <v>298</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -4369,25 +4369,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>582</v>
+      </c>
+      <c r="D86" t="s">
         <v>299</v>
       </c>
-      <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" t="s">
-        <v>583</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>300</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>301</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>302</v>
-      </c>
-      <c r="G86" t="s">
-        <v>303</v>
       </c>
       <c r="H86">
         <v>0.5</v>
@@ -4395,22 +4395,22 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>583</v>
+      </c>
+      <c r="E87" t="s">
         <v>304</v>
       </c>
-      <c r="B87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" t="s">
-        <v>584</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>305</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
-      </c>
-      <c r="G87" t="s">
-        <v>307</v>
       </c>
       <c r="H87">
         <v>26</v>
@@ -4418,25 +4418,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D88" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E88" t="s">
+        <v>308</v>
+      </c>
+      <c r="F88" t="s">
         <v>309</v>
       </c>
-      <c r="F88" t="s">
-        <v>310</v>
-      </c>
       <c r="G88" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H88">
         <v>2.5</v>
@@ -4444,19 +4444,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" t="s">
         <v>311</v>
       </c>
-      <c r="B89" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>312</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>313</v>
-      </c>
-      <c r="G89" t="s">
-        <v>314</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -4464,25 +4464,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>583</v>
+      </c>
+      <c r="D90" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" t="s">
         <v>315</v>
       </c>
-      <c r="B90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" t="s">
-        <v>584</v>
-      </c>
-      <c r="D90" t="s">
-        <v>280</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>316</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>317</v>
-      </c>
-      <c r="G90" t="s">
-        <v>318</v>
       </c>
       <c r="H90">
         <v>12</v>
@@ -4490,25 +4490,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>582</v>
+      </c>
+      <c r="D91" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" t="s">
         <v>319</v>
       </c>
-      <c r="B91" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" t="s">
-        <v>583</v>
-      </c>
-      <c r="D91" t="s">
-        <v>280</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>320</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>321</v>
-      </c>
-      <c r="G91" t="s">
-        <v>322</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -4516,25 +4516,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>582</v>
+      </c>
+      <c r="D92" t="s">
+        <v>279</v>
+      </c>
+      <c r="E92" t="s">
         <v>323</v>
       </c>
-      <c r="B92" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" t="s">
-        <v>583</v>
-      </c>
-      <c r="D92" t="s">
-        <v>280</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>324</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>325</v>
-      </c>
-      <c r="G92" t="s">
-        <v>326</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -4542,25 +4542,25 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
       <c r="E93" t="s">
+        <v>327</v>
+      </c>
+      <c r="F93" t="s">
         <v>328</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>329</v>
-      </c>
-      <c r="G93" t="s">
-        <v>330</v>
       </c>
       <c r="H93">
         <v>12</v>
@@ -4568,25 +4568,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D94" t="s">
+        <v>331</v>
+      </c>
+      <c r="E94" t="s">
         <v>332</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>333</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>334</v>
-      </c>
-      <c r="G94" t="s">
-        <v>335</v>
       </c>
       <c r="H94">
         <v>7.5</v>
@@ -4594,25 +4594,25 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
       </c>
       <c r="E95" t="s">
+        <v>336</v>
+      </c>
+      <c r="F95" t="s">
+        <v>333</v>
+      </c>
+      <c r="G95" t="s">
         <v>337</v>
-      </c>
-      <c r="F95" t="s">
-        <v>334</v>
-      </c>
-      <c r="G95" t="s">
-        <v>338</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -4620,19 +4620,19 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
         <v>339</v>
       </c>
-      <c r="B96" t="s">
-        <v>34</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>340</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>341</v>
-      </c>
-      <c r="G96" t="s">
-        <v>342</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -4640,25 +4640,25 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>582</v>
+      </c>
+      <c r="D97" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" t="s">
         <v>343</v>
       </c>
-      <c r="B97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" t="s">
-        <v>583</v>
-      </c>
-      <c r="D97" t="s">
-        <v>280</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
+        <v>340</v>
+      </c>
+      <c r="G97" t="s">
         <v>344</v>
-      </c>
-      <c r="F97" t="s">
-        <v>341</v>
-      </c>
-      <c r="G97" t="s">
-        <v>345</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -4666,25 +4666,25 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" t="s">
+        <v>582</v>
+      </c>
+      <c r="D98" t="s">
+        <v>240</v>
+      </c>
+      <c r="E98" t="s">
         <v>346</v>
       </c>
-      <c r="B98" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" t="s">
-        <v>583</v>
-      </c>
-      <c r="D98" t="s">
-        <v>241</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>347</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>348</v>
-      </c>
-      <c r="G98" t="s">
-        <v>349</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4692,534 +4692,534 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>585</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" t="s">
         <v>350</v>
-      </c>
-      <c r="B99" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" t="s">
-        <v>586</v>
-      </c>
-      <c r="D99" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>585</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
         <v>352</v>
-      </c>
-      <c r="B100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" t="s">
-        <v>586</v>
-      </c>
-      <c r="D100" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>586</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
         <v>354</v>
-      </c>
-      <c r="B101" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" t="s">
-        <v>587</v>
-      </c>
-      <c r="D101" t="s">
-        <v>21</v>
-      </c>
-      <c r="E101" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
+        <v>586</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
         <v>356</v>
-      </c>
-      <c r="B102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" t="s">
-        <v>587</v>
-      </c>
-      <c r="D102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E104" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D105" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E105" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E106" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="s">
+        <v>585</v>
+      </c>
+      <c r="D107" t="s">
         <v>365</v>
       </c>
-      <c r="B107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" t="s">
-        <v>586</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>366</v>
-      </c>
-      <c r="E107" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" t="s">
         <v>368</v>
-      </c>
-      <c r="B108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="D108" t="s">
-        <v>21</v>
-      </c>
-      <c r="E108" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E109" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" t="s">
         <v>374</v>
-      </c>
-      <c r="B111" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D111" t="s">
-        <v>21</v>
-      </c>
-      <c r="E111" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>375</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" t="s">
+        <v>585</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" t="s">
         <v>376</v>
-      </c>
-      <c r="B112" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" t="s">
-        <v>586</v>
-      </c>
-      <c r="D112" t="s">
-        <v>21</v>
-      </c>
-      <c r="E112" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>377</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D113" t="s">
+        <v>331</v>
+      </c>
+      <c r="E113" t="s">
         <v>378</v>
-      </c>
-      <c r="B113" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D113" t="s">
-        <v>332</v>
-      </c>
-      <c r="E113" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>379</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D114" t="s">
+        <v>331</v>
+      </c>
+      <c r="E114" t="s">
         <v>380</v>
-      </c>
-      <c r="B114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D114" t="s">
-        <v>332</v>
-      </c>
-      <c r="E114" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D115" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E115" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E116" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B117" t="s">
         <v>18</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B118" t="s">
         <v>18</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>389</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D119" t="s">
+        <v>279</v>
+      </c>
+      <c r="E119" t="s">
         <v>390</v>
-      </c>
-      <c r="B119" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D119" t="s">
-        <v>280</v>
-      </c>
-      <c r="E119" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>391</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D120" t="s">
+        <v>331</v>
+      </c>
+      <c r="E120" t="s">
         <v>392</v>
-      </c>
-      <c r="B120" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D120" t="s">
-        <v>332</v>
-      </c>
-      <c r="E120" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B121" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>395</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D122" t="s">
+        <v>331</v>
+      </c>
+      <c r="E122" t="s">
         <v>396</v>
-      </c>
-      <c r="B122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D122" t="s">
-        <v>332</v>
-      </c>
-      <c r="E122" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>397</v>
+      </c>
+      <c r="B123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D123" t="s">
+        <v>279</v>
+      </c>
+      <c r="E123" t="s">
         <v>398</v>
-      </c>
-      <c r="B123" t="s">
-        <v>117</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D123" t="s">
-        <v>280</v>
-      </c>
-      <c r="E123" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>399</v>
+      </c>
+      <c r="B124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D124" t="s">
         <v>400</v>
       </c>
-      <c r="B124" t="s">
-        <v>117</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>401</v>
-      </c>
-      <c r="E124" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>404</v>
+      </c>
+      <c r="B126" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D126" t="s">
+        <v>257</v>
+      </c>
+      <c r="E126" t="s">
         <v>405</v>
-      </c>
-      <c r="B126" t="s">
-        <v>117</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D126" t="s">
-        <v>258</v>
-      </c>
-      <c r="E126" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D127" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E127" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E128" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D129" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E129" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -5228,145 +5228,145 @@
         <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>416</v>
+      </c>
+      <c r="B132" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" t="s">
+        <v>240</v>
+      </c>
+      <c r="E132" t="s">
         <v>417</v>
-      </c>
-      <c r="B132" t="s">
-        <v>117</v>
-      </c>
-      <c r="D132" t="s">
-        <v>241</v>
-      </c>
-      <c r="E132" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>418</v>
+      </c>
+      <c r="B133" t="s">
+        <v>116</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D133" t="s">
+        <v>331</v>
+      </c>
+      <c r="E133" t="s">
         <v>419</v>
-      </c>
-      <c r="B133" t="s">
-        <v>117</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D133" t="s">
-        <v>332</v>
-      </c>
-      <c r="E133" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>420</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>582</v>
+      </c>
+      <c r="D134" t="s">
+        <v>279</v>
+      </c>
+      <c r="E134" t="s">
         <v>421</v>
-      </c>
-      <c r="B134" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" t="s">
-        <v>583</v>
-      </c>
-      <c r="D134" t="s">
-        <v>280</v>
-      </c>
-      <c r="E134" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>422</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D135" t="s">
+        <v>299</v>
+      </c>
+      <c r="E135" t="s">
         <v>423</v>
-      </c>
-      <c r="B135" t="s">
-        <v>18</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D135" t="s">
-        <v>300</v>
-      </c>
-      <c r="E135" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>424</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>585</v>
+      </c>
+      <c r="D136" t="s">
         <v>425</v>
       </c>
-      <c r="B136" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" t="s">
-        <v>586</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>426</v>
-      </c>
-      <c r="E136" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>427</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D137" t="s">
+        <v>299</v>
+      </c>
+      <c r="E137" t="s">
         <v>428</v>
-      </c>
-      <c r="B137" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D137" t="s">
-        <v>300</v>
-      </c>
-      <c r="E137" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>429</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>585</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" t="s">
         <v>430</v>
-      </c>
-      <c r="B138" t="s">
-        <v>18</v>
-      </c>
-      <c r="C138" t="s">
-        <v>586</v>
-      </c>
-      <c r="D138" t="s">
-        <v>21</v>
-      </c>
-      <c r="E138" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B139" t="s">
         <v>18</v>
@@ -5375,641 +5375,641 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>433</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>585</v>
+      </c>
+      <c r="D140" t="s">
         <v>434</v>
       </c>
-      <c r="B140" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" t="s">
-        <v>586</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>435</v>
-      </c>
-      <c r="E140" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>436</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>585</v>
+      </c>
+      <c r="D141" t="s">
+        <v>279</v>
+      </c>
+      <c r="E141" t="s">
         <v>437</v>
-      </c>
-      <c r="B141" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" t="s">
-        <v>586</v>
-      </c>
-      <c r="D141" t="s">
-        <v>280</v>
-      </c>
-      <c r="E141" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C142" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>440</v>
+      </c>
+      <c r="B143" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D143" t="s">
         <v>441</v>
       </c>
-      <c r="B143" t="s">
-        <v>176</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>442</v>
-      </c>
-      <c r="E143" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>443</v>
+      </c>
+      <c r="B144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D144" t="s">
+        <v>441</v>
+      </c>
+      <c r="E144" t="s">
         <v>444</v>
-      </c>
-      <c r="B144" t="s">
-        <v>176</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D144" t="s">
-        <v>442</v>
-      </c>
-      <c r="E144" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>445</v>
+      </c>
+      <c r="B145" t="s">
+        <v>175</v>
+      </c>
+      <c r="C145" t="s">
+        <v>585</v>
+      </c>
+      <c r="D145" t="s">
+        <v>441</v>
+      </c>
+      <c r="E145" t="s">
         <v>446</v>
-      </c>
-      <c r="B145" t="s">
-        <v>176</v>
-      </c>
-      <c r="C145" t="s">
-        <v>586</v>
-      </c>
-      <c r="D145" t="s">
-        <v>442</v>
-      </c>
-      <c r="E145" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>447</v>
+      </c>
+      <c r="B146" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D146" t="s">
+        <v>257</v>
+      </c>
+      <c r="E146" t="s">
         <v>448</v>
-      </c>
-      <c r="B146" t="s">
-        <v>176</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D146" t="s">
-        <v>258</v>
-      </c>
-      <c r="E146" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>449</v>
+      </c>
+      <c r="B147" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D147" t="s">
+        <v>257</v>
+      </c>
+      <c r="E147" t="s">
         <v>450</v>
-      </c>
-      <c r="B147" t="s">
-        <v>176</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D147" t="s">
-        <v>258</v>
-      </c>
-      <c r="E147" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>451</v>
+      </c>
+      <c r="B148" t="s">
+        <v>175</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D148" t="s">
+        <v>441</v>
+      </c>
+      <c r="E148" t="s">
         <v>452</v>
-      </c>
-      <c r="B148" t="s">
-        <v>176</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D148" t="s">
-        <v>442</v>
-      </c>
-      <c r="E148" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>453</v>
+      </c>
+      <c r="B149" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D149" t="s">
+        <v>441</v>
+      </c>
+      <c r="E149" t="s">
         <v>454</v>
-      </c>
-      <c r="B149" t="s">
-        <v>176</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D149" t="s">
-        <v>442</v>
-      </c>
-      <c r="E149" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B150" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>459</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" t="s">
         <v>460</v>
-      </c>
-      <c r="B152" t="s">
-        <v>18</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D152" t="s">
-        <v>21</v>
-      </c>
-      <c r="E152" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>461</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" t="s">
         <v>462</v>
-      </c>
-      <c r="B153" t="s">
-        <v>18</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D153" t="s">
-        <v>21</v>
-      </c>
-      <c r="E153" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D154" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E154" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D156" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E156" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D157" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E157" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D158" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E158" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E159" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D160" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E160" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>477</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D161" t="s">
+        <v>279</v>
+      </c>
+      <c r="E161" t="s">
         <v>478</v>
-      </c>
-      <c r="B161" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D161" t="s">
-        <v>280</v>
-      </c>
-      <c r="E161" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" t="s">
+        <v>116</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D162" t="s">
+        <v>441</v>
+      </c>
+      <c r="E162" t="s">
         <v>480</v>
-      </c>
-      <c r="B162" t="s">
-        <v>117</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D162" t="s">
-        <v>442</v>
-      </c>
-      <c r="E162" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>481</v>
+      </c>
+      <c r="B163" t="s">
+        <v>116</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D163" t="s">
+        <v>331</v>
+      </c>
+      <c r="E163" t="s">
         <v>482</v>
-      </c>
-      <c r="B163" t="s">
-        <v>117</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D163" t="s">
-        <v>332</v>
-      </c>
-      <c r="E163" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>483</v>
+      </c>
+      <c r="B164" t="s">
+        <v>116</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D164" t="s">
+        <v>299</v>
+      </c>
+      <c r="E164" t="s">
         <v>484</v>
-      </c>
-      <c r="B164" t="s">
-        <v>117</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D164" t="s">
-        <v>300</v>
-      </c>
-      <c r="E164" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>485</v>
+      </c>
+      <c r="B165" t="s">
+        <v>116</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D165" t="s">
+        <v>441</v>
+      </c>
+      <c r="E165" t="s">
         <v>486</v>
-      </c>
-      <c r="B165" t="s">
-        <v>117</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D165" t="s">
-        <v>442</v>
-      </c>
-      <c r="E165" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>487</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D166" t="s">
+        <v>441</v>
+      </c>
+      <c r="E166" t="s">
         <v>488</v>
-      </c>
-      <c r="B166" t="s">
-        <v>18</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D166" t="s">
-        <v>442</v>
-      </c>
-      <c r="E166" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D167" t="s">
         <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>491</v>
+      </c>
+      <c r="B168" t="s">
+        <v>116</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D168" t="s">
+        <v>331</v>
+      </c>
+      <c r="E168" t="s">
         <v>492</v>
-      </c>
-      <c r="B168" t="s">
-        <v>117</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D168" t="s">
-        <v>332</v>
-      </c>
-      <c r="E168" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>493</v>
+      </c>
+      <c r="B169" t="s">
+        <v>116</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D169" t="s">
+        <v>331</v>
+      </c>
+      <c r="E169" t="s">
         <v>494</v>
-      </c>
-      <c r="B169" t="s">
-        <v>117</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D169" t="s">
-        <v>332</v>
-      </c>
-      <c r="E169" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>495</v>
+      </c>
+      <c r="B170" t="s">
+        <v>116</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D170" t="s">
+        <v>434</v>
+      </c>
+      <c r="E170" t="s">
         <v>496</v>
-      </c>
-      <c r="B170" t="s">
-        <v>117</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D170" t="s">
-        <v>435</v>
-      </c>
-      <c r="E170" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>497</v>
+      </c>
+      <c r="B171" t="s">
+        <v>116</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D171" t="s">
+        <v>331</v>
+      </c>
+      <c r="E171" t="s">
         <v>498</v>
-      </c>
-      <c r="B171" t="s">
-        <v>117</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D171" t="s">
-        <v>332</v>
-      </c>
-      <c r="E171" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>499</v>
+      </c>
+      <c r="B172" t="s">
+        <v>116</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D172" t="s">
+        <v>331</v>
+      </c>
+      <c r="E172" t="s">
         <v>500</v>
-      </c>
-      <c r="B172" t="s">
-        <v>117</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D172" t="s">
-        <v>332</v>
-      </c>
-      <c r="E172" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>501</v>
+      </c>
+      <c r="B173" t="s">
+        <v>116</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D173" t="s">
+        <v>400</v>
+      </c>
+      <c r="E173" t="s">
         <v>502</v>
-      </c>
-      <c r="B173" t="s">
-        <v>117</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D173" t="s">
-        <v>401</v>
-      </c>
-      <c r="E173" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D174" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E174" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D175" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E175" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D176" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E176" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
@@ -6019,12 +6019,12 @@
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
@@ -6033,12 +6033,12 @@
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
@@ -6047,63 +6047,63 @@
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>515</v>
+      </c>
+      <c r="B180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" t="s">
+        <v>585</v>
+      </c>
+      <c r="D180" t="s">
+        <v>425</v>
+      </c>
+      <c r="E180" t="s">
         <v>516</v>
-      </c>
-      <c r="B180" t="s">
-        <v>18</v>
-      </c>
-      <c r="C180" t="s">
-        <v>586</v>
-      </c>
-      <c r="D180" t="s">
-        <v>426</v>
-      </c>
-      <c r="E180" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B181" t="s">
         <v>18</v>
       </c>
       <c r="C181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D181" t="s">
         <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>519</v>
+      </c>
+      <c r="B182" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" t="s">
         <v>520</v>
-      </c>
-      <c r="B182" t="s">
-        <v>18</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D182" t="s">
-        <v>21</v>
-      </c>
-      <c r="E182" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
@@ -6112,12 +6112,12 @@
         <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
@@ -6126,335 +6126,335 @@
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D185" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E185" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D186" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E186" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>529</v>
+      </c>
+      <c r="B187" t="s">
+        <v>116</v>
+      </c>
+      <c r="C187" t="s">
+        <v>585</v>
+      </c>
+      <c r="D187" t="s">
+        <v>331</v>
+      </c>
+      <c r="E187" t="s">
         <v>530</v>
-      </c>
-      <c r="B187" t="s">
-        <v>117</v>
-      </c>
-      <c r="C187" t="s">
-        <v>586</v>
-      </c>
-      <c r="D187" t="s">
-        <v>332</v>
-      </c>
-      <c r="E187" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>531</v>
+      </c>
+      <c r="B188" t="s">
+        <v>116</v>
+      </c>
+      <c r="C188" t="s">
+        <v>585</v>
+      </c>
+      <c r="D188" t="s">
+        <v>400</v>
+      </c>
+      <c r="E188" t="s">
         <v>532</v>
-      </c>
-      <c r="B188" t="s">
-        <v>117</v>
-      </c>
-      <c r="C188" t="s">
-        <v>586</v>
-      </c>
-      <c r="D188" t="s">
-        <v>401</v>
-      </c>
-      <c r="E188" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>533</v>
+      </c>
+      <c r="B189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" t="s">
+        <v>582</v>
+      </c>
+      <c r="D189" t="s">
+        <v>56</v>
+      </c>
+      <c r="E189" t="s">
         <v>534</v>
-      </c>
-      <c r="B189" t="s">
-        <v>18</v>
-      </c>
-      <c r="C189" t="s">
-        <v>583</v>
-      </c>
-      <c r="D189" t="s">
-        <v>57</v>
-      </c>
-      <c r="E189" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D190" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E190" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>537</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" t="s">
+        <v>585</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191" t="s">
         <v>538</v>
-      </c>
-      <c r="B191" t="s">
-        <v>18</v>
-      </c>
-      <c r="C191" t="s">
-        <v>586</v>
-      </c>
-      <c r="D191" t="s">
-        <v>21</v>
-      </c>
-      <c r="E191" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>539</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" t="s">
+        <v>586</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" t="s">
         <v>540</v>
-      </c>
-      <c r="B192" t="s">
-        <v>18</v>
-      </c>
-      <c r="C192" t="s">
-        <v>587</v>
-      </c>
-      <c r="D192" t="s">
-        <v>21</v>
-      </c>
-      <c r="E192" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>541</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" t="s">
+        <v>585</v>
+      </c>
+      <c r="D193" t="s">
+        <v>279</v>
+      </c>
+      <c r="E193" t="s">
         <v>542</v>
-      </c>
-      <c r="B193" t="s">
-        <v>18</v>
-      </c>
-      <c r="C193" t="s">
-        <v>586</v>
-      </c>
-      <c r="D193" t="s">
-        <v>280</v>
-      </c>
-      <c r="E193" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>543</v>
+      </c>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="s">
+        <v>585</v>
+      </c>
+      <c r="D194" t="s">
+        <v>279</v>
+      </c>
+      <c r="E194" t="s">
         <v>544</v>
-      </c>
-      <c r="B194" t="s">
-        <v>18</v>
-      </c>
-      <c r="C194" t="s">
-        <v>586</v>
-      </c>
-      <c r="D194" t="s">
-        <v>280</v>
-      </c>
-      <c r="E194" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>545</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>585</v>
+      </c>
+      <c r="D195" t="s">
+        <v>279</v>
+      </c>
+      <c r="E195" t="s">
         <v>546</v>
-      </c>
-      <c r="B195" t="s">
-        <v>18</v>
-      </c>
-      <c r="C195" t="s">
-        <v>586</v>
-      </c>
-      <c r="D195" t="s">
-        <v>280</v>
-      </c>
-      <c r="E195" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
+        <v>547</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>585</v>
+      </c>
+      <c r="D196" t="s">
+        <v>279</v>
+      </c>
+      <c r="E196" t="s">
         <v>548</v>
-      </c>
-      <c r="B196" t="s">
-        <v>18</v>
-      </c>
-      <c r="C196" t="s">
-        <v>586</v>
-      </c>
-      <c r="D196" t="s">
-        <v>280</v>
-      </c>
-      <c r="E196" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
+        <v>549</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>585</v>
+      </c>
+      <c r="D197" t="s">
+        <v>279</v>
+      </c>
+      <c r="E197" t="s">
         <v>550</v>
-      </c>
-      <c r="B197" t="s">
-        <v>18</v>
-      </c>
-      <c r="C197" t="s">
-        <v>586</v>
-      </c>
-      <c r="D197" t="s">
-        <v>280</v>
-      </c>
-      <c r="E197" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>551</v>
+      </c>
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>585</v>
+      </c>
+      <c r="D198" t="s">
+        <v>279</v>
+      </c>
+      <c r="E198" t="s">
         <v>552</v>
-      </c>
-      <c r="B198" t="s">
-        <v>18</v>
-      </c>
-      <c r="C198" t="s">
-        <v>586</v>
-      </c>
-      <c r="D198" t="s">
-        <v>280</v>
-      </c>
-      <c r="E198" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
+        <v>553</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>585</v>
+      </c>
+      <c r="D199" t="s">
+        <v>279</v>
+      </c>
+      <c r="E199" t="s">
         <v>554</v>
-      </c>
-      <c r="B199" t="s">
-        <v>18</v>
-      </c>
-      <c r="C199" t="s">
-        <v>586</v>
-      </c>
-      <c r="D199" t="s">
-        <v>280</v>
-      </c>
-      <c r="E199" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
+        <v>555</v>
+      </c>
+      <c r="B200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" t="s">
+        <v>582</v>
+      </c>
+      <c r="D200" t="s">
+        <v>279</v>
+      </c>
+      <c r="E200" t="s">
         <v>556</v>
-      </c>
-      <c r="B200" t="s">
-        <v>18</v>
-      </c>
-      <c r="C200" t="s">
-        <v>583</v>
-      </c>
-      <c r="D200" t="s">
-        <v>280</v>
-      </c>
-      <c r="E200" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
+        <v>557</v>
+      </c>
+      <c r="B201" t="s">
+        <v>116</v>
+      </c>
+      <c r="C201" t="s">
+        <v>582</v>
+      </c>
+      <c r="D201" t="s">
         <v>558</v>
       </c>
-      <c r="B201" t="s">
-        <v>117</v>
-      </c>
-      <c r="C201" t="s">
-        <v>583</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>559</v>
-      </c>
-      <c r="E201" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D202" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E202" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D203" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E203" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B204" t="s">
         <v>8</v>
@@ -6463,120 +6463,120 @@
         <v>9</v>
       </c>
       <c r="E204" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D205" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E205" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
+        <v>568</v>
+      </c>
+      <c r="B206" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" t="s">
+        <v>585</v>
+      </c>
+      <c r="D206" t="s">
+        <v>279</v>
+      </c>
+      <c r="E206" t="s">
         <v>569</v>
-      </c>
-      <c r="B206" t="s">
-        <v>18</v>
-      </c>
-      <c r="C206" t="s">
-        <v>586</v>
-      </c>
-      <c r="D206" t="s">
-        <v>280</v>
-      </c>
-      <c r="E206" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
+        <v>570</v>
+      </c>
+      <c r="B207" t="s">
+        <v>116</v>
+      </c>
+      <c r="C207" t="s">
+        <v>582</v>
+      </c>
+      <c r="D207" t="s">
+        <v>279</v>
+      </c>
+      <c r="E207" t="s">
         <v>571</v>
-      </c>
-      <c r="B207" t="s">
-        <v>117</v>
-      </c>
-      <c r="C207" t="s">
-        <v>583</v>
-      </c>
-      <c r="D207" t="s">
-        <v>280</v>
-      </c>
-      <c r="E207" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
+        <v>572</v>
+      </c>
+      <c r="B208" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" t="s">
+        <v>585</v>
+      </c>
+      <c r="D208" t="s">
+        <v>299</v>
+      </c>
+      <c r="E208" t="s">
         <v>573</v>
-      </c>
-      <c r="B208" t="s">
-        <v>117</v>
-      </c>
-      <c r="C208" t="s">
-        <v>586</v>
-      </c>
-      <c r="D208" t="s">
-        <v>300</v>
-      </c>
-      <c r="E208" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
+        <v>574</v>
+      </c>
+      <c r="B209" t="s">
+        <v>116</v>
+      </c>
+      <c r="C209" t="s">
+        <v>585</v>
+      </c>
+      <c r="D209" t="s">
+        <v>331</v>
+      </c>
+      <c r="E209" t="s">
         <v>575</v>
-      </c>
-      <c r="B209" t="s">
-        <v>117</v>
-      </c>
-      <c r="C209" t="s">
-        <v>586</v>
-      </c>
-      <c r="D209" t="s">
-        <v>332</v>
-      </c>
-      <c r="E209" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
+        <v>576</v>
+      </c>
+      <c r="B210" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" t="s">
+        <v>279</v>
+      </c>
+      <c r="E210" t="s">
         <v>577</v>
-      </c>
-      <c r="B210" t="s">
-        <v>18</v>
-      </c>
-      <c r="D210" t="s">
-        <v>280</v>
-      </c>
-      <c r="E210" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
+        <v>578</v>
+      </c>
+      <c r="B211" t="s">
+        <v>116</v>
+      </c>
+      <c r="D211" t="s">
         <v>579</v>
       </c>
-      <c r="B211" t="s">
-        <v>117</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>580</v>
-      </c>
-      <c r="E211" t="s">
-        <v>581</v>
       </c>
     </row>
   </sheetData>
